--- a/Document/인턴_김희원_산출물_테스트케이스_v1.xlsx
+++ b/Document/인턴_김희원_산출물_테스트케이스_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="197">
   <si>
     <t>단위테스트ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +808,10 @@
   </si>
   <si>
     <t xml:space="preserve"> O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,6 +973,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -996,8 +1003,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,25 +1326,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1355,23 +1362,23 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="115.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1383,15 +1390,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1587,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1605,10 +1612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
@@ -1616,17 +1623,17 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
@@ -1645,46 +1652,50 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="115.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="24">
+        <v>43394</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1732,7 +1743,7 @@
       <c r="G7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1750,7 +1761,7 @@
       <c r="G8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1768,7 +1779,7 @@
       <c r="G9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1786,7 +1797,7 @@
       <c r="G10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1810,7 +1821,7 @@
       <c r="G11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1828,7 +1839,7 @@
       <c r="G12" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1846,7 +1857,7 @@
       <c r="G13" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1864,7 +1875,7 @@
       <c r="G14" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1882,7 +1893,7 @@
       <c r="G15" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1900,7 +1911,7 @@
       <c r="G16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1918,7 +1929,7 @@
       <c r="G17" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1936,7 +1947,7 @@
       <c r="G18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1960,7 +1971,7 @@
       <c r="G19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1978,7 +1989,7 @@
       <c r="G20" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2002,7 +2013,7 @@
       <c r="G21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2020,7 +2031,7 @@
       <c r="G22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2040,7 +2051,7 @@
       <c r="G23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2058,7 +2069,7 @@
       <c r="G24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2076,7 +2087,7 @@
       <c r="G25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2094,7 +2105,7 @@
       <c r="G26" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2114,7 +2125,7 @@
       <c r="G27" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2132,7 +2143,7 @@
       <c r="G28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2150,7 +2161,7 @@
       <c r="G29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2170,7 +2181,7 @@
       <c r="G30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2188,7 +2199,7 @@
       <c r="G31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2206,7 +2217,7 @@
       <c r="G32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2226,7 +2237,7 @@
       <c r="G33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2244,7 +2255,7 @@
       <c r="G34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2264,7 +2275,7 @@
       <c r="G35" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2282,7 +2293,7 @@
       <c r="G36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2302,7 +2313,7 @@
       <c r="G37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2326,7 +2337,7 @@
       <c r="G38" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2346,7 +2357,7 @@
       <c r="G39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2364,7 +2375,7 @@
       <c r="G40" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2382,7 +2393,7 @@
       <c r="G41" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2400,7 +2411,7 @@
       <c r="G42" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2418,7 +2429,7 @@
       <c r="G43" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2516,8 +2527,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H44"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2534,10 +2545,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
@@ -2545,17 +2556,17 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
         <v>109</v>
       </c>
@@ -2574,46 +2585,50 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="115.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="24">
+        <v>43394</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2661,7 +2676,7 @@
       <c r="G7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2679,7 +2694,7 @@
       <c r="G8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2697,7 +2712,7 @@
       <c r="G9" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2721,7 +2736,7 @@
       <c r="G10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2739,7 +2754,7 @@
       <c r="G11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2765,7 +2780,7 @@
       <c r="G12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2783,7 +2798,7 @@
       <c r="G13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2803,7 +2818,7 @@
       <c r="G14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2821,7 +2836,7 @@
       <c r="G15" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2839,7 +2854,7 @@
       <c r="G16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2857,7 +2872,7 @@
       <c r="G17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2877,7 +2892,7 @@
       <c r="G18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2895,7 +2910,7 @@
       <c r="G19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2913,7 +2928,7 @@
       <c r="G20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2931,7 +2946,7 @@
       <c r="G21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2957,7 +2972,7 @@
       <c r="G22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2977,7 +2992,7 @@
       <c r="G23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2995,7 +3010,7 @@
       <c r="G24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3013,7 +3028,7 @@
       <c r="G25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3031,7 +3046,7 @@
       <c r="G26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3049,7 +3064,7 @@
       <c r="G27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3069,7 +3084,7 @@
       <c r="G28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3087,7 +3102,7 @@
       <c r="G29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3113,7 +3128,7 @@
       <c r="G30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3131,7 +3146,7 @@
       <c r="G31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3151,7 +3166,7 @@
       <c r="G32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3169,7 +3184,7 @@
       <c r="G33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3187,7 +3202,7 @@
       <c r="G34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3205,7 +3220,7 @@
       <c r="G35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3223,7 +3238,7 @@
       <c r="G36" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3241,7 +3256,7 @@
       <c r="G37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3259,7 +3274,7 @@
       <c r="G38" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3279,7 +3294,7 @@
       <c r="G39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3297,7 +3312,7 @@
       <c r="G40" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3315,7 +3330,7 @@
       <c r="G41" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3333,7 +3348,7 @@
       <c r="G42" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3351,7 +3366,7 @@
       <c r="G43" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3369,7 +3384,7 @@
       <c r="G44" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="14" t="s">
         <v>195</v>
       </c>
     </row>
